--- a/biopharma.xlsx
+++ b/biopharma.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD981DF0-1A54-46FA-B726-613A10A584D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7049284E-DC54-44B9-B0A8-184BE5D64512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="1140" windowWidth="22200" windowHeight="14685" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
+    <workbookView xWindow="2985" yWindow="1275" windowWidth="22200" windowHeight="14205" activeTab="5" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Todo" sheetId="7" r:id="rId2"/>
     <sheet name="Clinical Trials" sheetId="10" r:id="rId3"/>
-    <sheet name="Drugs" sheetId="6" r:id="rId4"/>
-    <sheet name="Diseases" sheetId="9" r:id="rId5"/>
-    <sheet name="Private" sheetId="5" r:id="rId6"/>
-    <sheet name="Funds" sheetId="8" r:id="rId7"/>
-    <sheet name="Databases" sheetId="11" r:id="rId8"/>
+    <sheet name="Launches" sheetId="12" r:id="rId4"/>
+    <sheet name="Drugs" sheetId="6" r:id="rId5"/>
+    <sheet name="Diseases" sheetId="9" r:id="rId6"/>
+    <sheet name="Private" sheetId="5" r:id="rId7"/>
+    <sheet name="Funds" sheetId="8" r:id="rId8"/>
+    <sheet name="Databases" sheetId="11" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
@@ -35,6 +35,7 @@
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="829">
   <si>
     <t>Name</t>
   </si>
@@ -1859,12 +1860,6 @@
     <t xml:space="preserve">WHO Choice-Rule: max 3x GDP intervention QALY </t>
   </si>
   <si>
-    <t>USA HHS values 1 year of life at 500k</t>
-  </si>
-  <si>
-    <t>Keytruda ~3mo PFS over chemo alone should be ~160k/year which aligns with current pricing</t>
-  </si>
-  <si>
     <t>Approved</t>
   </si>
   <si>
@@ -2481,6 +2476,75 @@
   </si>
   <si>
     <t>NKTR</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Zepbound</t>
+  </si>
+  <si>
+    <t>https://aspe.hhs.gov/sites/default/files/documents/cd2a1348ea0777b1aa918089e4965b8c/standard-ria-values.pdf</t>
+  </si>
+  <si>
+    <t>USA HHS VSLY 500-600k in 2023</t>
+  </si>
+  <si>
+    <t>Keytruda ~3mo PFS over control should be ~160k/year which aligns directionally with current pricing of 200k/year. Including the OS benefit of 20% at 5yr vs 11% in control in NSCLC and median OS being a 6 month improvement this premium seems accounted for in the 200k/year. further analysis needs to be done for specific but generally this seems to be how its priced</t>
+  </si>
+  <si>
+    <t>OS Improvement (mo)</t>
+  </si>
+  <si>
+    <t>PFS Improvement (mo)</t>
+  </si>
+  <si>
+    <t>VSLY per year</t>
+  </si>
+  <si>
+    <t>average survival improvement (mo) in endpoints</t>
+  </si>
+  <si>
+    <t>Treatment cost/year calculated</t>
+  </si>
+  <si>
+    <t>Treat cost/year actual</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -2536,7 +2600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2573,6 +2637,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2815,8 +2880,11 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="IP"/>
+      <sheetName val="Literature"/>
+      <sheetName val="Sarcoidosis"/>
+      <sheetName val="NRP2"/>
       <sheetName val="Efzofitimod"/>
-      <sheetName val="NRP2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2841,9 +2909,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3715,11 +3786,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BA3935-C65F-4820-824F-2092D9DD7675}">
   <dimension ref="B1:Q131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3737,7 +3808,7 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,B113)</f>
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F4:F1048576)</f>
@@ -5609,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="L113" s="3"/>
     </row>
@@ -5699,10 +5770,10 @@
         <v>116</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D119" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E119">
         <v>5.35</v>
@@ -5861,17 +5932,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -5933,13 +6004,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -5972,22 +6043,22 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C7" s="2">
         <v>8200</v>
@@ -5995,7 +6066,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C8" s="2">
         <v>14600</v>
@@ -6005,10 +6076,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B9" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C9" s="2">
         <v>14500</v>
@@ -6020,55 +6091,55 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D15" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -6080,6 +6151,88 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24A2CE8-56BC-441A-B926-4DA5F57E4866}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>806</v>
+      </c>
+      <c r="D3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E3" t="s">
+        <v>808</v>
+      </c>
+      <c r="F3" t="s">
+        <v>809</v>
+      </c>
+      <c r="G3" t="s">
+        <v>814</v>
+      </c>
+      <c r="H3" t="s">
+        <v>815</v>
+      </c>
+      <c r="I3" t="s">
+        <v>816</v>
+      </c>
+      <c r="J3" t="s">
+        <v>817</v>
+      </c>
+      <c r="M3" t="s">
+        <v>810</v>
+      </c>
+      <c r="N3" t="s">
+        <v>811</v>
+      </c>
+      <c r="O3" t="s">
+        <v>812</v>
+      </c>
+      <c r="P3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5319AE92-EB59-4E38-8417-C5424D351BE2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2B2AD0-6E41-4DC9-AA4F-9BFB6D36429D}">
   <dimension ref="A1:O136"/>
   <sheetViews>
@@ -6150,10 +6303,10 @@
         <v>459</v>
       </c>
       <c r="N2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -7762,7 +7915,7 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -7785,7 +7938,7 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -7808,7 +7961,7 @@
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -7831,7 +7984,7 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -7854,7 +8007,7 @@
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -7877,7 +8030,7 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
@@ -7900,7 +8053,7 @@
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -7923,7 +8076,7 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -7984,29 +8137,29 @@
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C70" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C71" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C72" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F72" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L72" t="s">
         <v>451</v>
@@ -8014,248 +8167,248 @@
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C73" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C74" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C75" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C76" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C77" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C78" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C79" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C80" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C81" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C82" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C83" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C84" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C85" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C86" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C87" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C88" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C89" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C90" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C91" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C92" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C93" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C94" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C95" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C96" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C97" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C98" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C99" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C100" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C101" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C102" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I102" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="N102" s="12">
         <v>1955</v>
@@ -8263,18 +8416,18 @@
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C103" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C104" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.2">
@@ -8287,215 +8440,215 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C106" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C107" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C108" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C109" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C110" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C111" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C112" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C113" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C114" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C115" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C116" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C117" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C118" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C119" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C120" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C121" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C122" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C123" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C124" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C125" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C126" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C127" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C128" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C129" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C130" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C131" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -8506,15 +8659,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FC8C1E-B59B-40F8-80DC-62A32A02DE98}">
-  <dimension ref="A1:DB127"/>
+  <dimension ref="A1:DB137"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C102" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E126" sqref="E126"/>
+      <selection pane="bottomRight" activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8622,10 +8775,10 @@
         <v>483</v>
       </c>
       <c r="V2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="W2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -8672,7 +8825,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C4" s="13">
         <v>25100</v>
@@ -9533,7 +9686,7 @@
       </c>
       <c r="V24" s="12"/>
       <c r="W24" s="17" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
@@ -9586,7 +9739,7 @@
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12">
@@ -9615,7 +9768,7 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="V26" s="12"/>
       <c r="X26" s="12"/>
@@ -9750,10 +9903,10 @@
         <v>532</v>
       </c>
       <c r="V29" s="19" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="W29" s="17" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
@@ -10242,7 +10395,7 @@
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>518</v>
@@ -10274,7 +10427,7 @@
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>518</v>
@@ -10310,10 +10463,10 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -10342,7 +10495,7 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>518</v>
@@ -10376,7 +10529,7 @@
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>518</v>
@@ -10412,7 +10565,7 @@
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12">
@@ -10446,7 +10599,7 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>518</v>
@@ -10482,7 +10635,7 @@
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12">
@@ -10516,7 +10669,7 @@
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>518</v>
@@ -10548,10 +10701,10 @@
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -10580,7 +10733,7 @@
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12">
@@ -10612,10 +10765,10 @@
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -10644,7 +10797,7 @@
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>518</v>
@@ -10678,7 +10831,7 @@
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C55" s="12"/>
       <c r="E55" s="12"/>
@@ -10707,14 +10860,14 @@
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12">
         <v>0.1</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -10741,10 +10894,10 @@
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -10773,7 +10926,7 @@
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>518</v>
@@ -10809,7 +10962,7 @@
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -10839,7 +10992,7 @@
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -10869,7 +11022,7 @@
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12">
@@ -10882,7 +11035,7 @@
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
@@ -10903,7 +11056,7 @@
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C62" s="12"/>
       <c r="F62" s="12"/>
@@ -10931,7 +11084,7 @@
     </row>
     <row r="63" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12">
@@ -10965,7 +11118,7 @@
     </row>
     <row r="64" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>518</v>
@@ -11001,7 +11154,7 @@
     </row>
     <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -11031,7 +11184,7 @@
     </row>
     <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12" t="s">
@@ -11063,7 +11216,7 @@
     </row>
     <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12">
@@ -11097,7 +11250,7 @@
     </row>
     <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12">
@@ -11129,16 +11282,16 @@
     </row>
     <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D69" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
@@ -11165,10 +11318,10 @@
     </row>
     <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D70" s="12">
         <v>0.05</v>
@@ -11201,10 +11354,10 @@
     </row>
     <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -11233,14 +11386,14 @@
     </row>
     <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12">
         <v>65</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -11267,14 +11420,14 @@
     </row>
     <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12">
         <v>35</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -11301,7 +11454,7 @@
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12">
@@ -11333,7 +11486,7 @@
     </row>
     <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -11363,7 +11516,7 @@
     </row>
     <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -11393,7 +11546,7 @@
     </row>
     <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>518</v>
@@ -11424,14 +11577,14 @@
     </row>
     <row r="78" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12">
         <v>0.3</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -11458,7 +11611,7 @@
     </row>
     <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -11488,7 +11641,7 @@
     </row>
     <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>518</v>
@@ -11524,7 +11677,7 @@
     </row>
     <row r="81" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>518</v>
@@ -11560,7 +11713,7 @@
     </row>
     <row r="82" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -11590,7 +11743,7 @@
     </row>
     <row r="83" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -11620,7 +11773,7 @@
     </row>
     <row r="84" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -11650,7 +11803,7 @@
     </row>
     <row r="85" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12">
@@ -11684,10 +11837,10 @@
     </row>
     <row r="86" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
@@ -11716,7 +11869,7 @@
     </row>
     <row r="87" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
@@ -11745,7 +11898,7 @@
     </row>
     <row r="88" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>518</v>
@@ -11781,7 +11934,7 @@
     </row>
     <row r="89" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
@@ -11811,7 +11964,7 @@
     </row>
     <row r="90" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
@@ -11841,7 +11994,7 @@
     </row>
     <row r="91" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
@@ -11871,7 +12024,7 @@
     </row>
     <row r="92" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>518</v>
@@ -11903,7 +12056,7 @@
     </row>
     <row r="93" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
@@ -11933,7 +12086,7 @@
     </row>
     <row r="94" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -11963,10 +12116,10 @@
     </row>
     <row r="95" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -11994,7 +12147,7 @@
     </row>
     <row r="96" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="12">
@@ -12026,14 +12179,14 @@
     </row>
     <row r="97" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="12">
         <v>0.35</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
@@ -12060,12 +12213,12 @@
     </row>
     <row r="98" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
@@ -12092,7 +12245,7 @@
     </row>
     <row r="99" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="12">
@@ -12126,7 +12279,7 @@
     </row>
     <row r="100" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
@@ -12190,7 +12343,7 @@
     </row>
     <row r="102" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
@@ -12220,10 +12373,10 @@
     </row>
     <row r="103" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
@@ -12252,7 +12405,7 @@
     </row>
     <row r="104" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
@@ -12282,7 +12435,7 @@
     </row>
     <row r="105" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
@@ -12314,14 +12467,14 @@
     </row>
     <row r="106" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="12">
         <v>0.35</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
@@ -12348,7 +12501,7 @@
     </row>
     <row r="107" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
@@ -12380,14 +12533,14 @@
     </row>
     <row r="108" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
@@ -12444,12 +12597,12 @@
     </row>
     <row r="110" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
@@ -12915,25 +13068,94 @@
     </row>
     <row r="126" spans="1:106" x14ac:dyDescent="0.2">
       <c r="G126" t="s">
-        <v>600</v>
+        <v>820</v>
       </c>
     </row>
     <row r="127" spans="1:106" x14ac:dyDescent="0.2">
       <c r="G127" s="11" t="s">
-        <v>601</v>
+        <v>821</v>
+      </c>
+    </row>
+    <row r="128" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <f>600</f>
+        <v>600</v>
+      </c>
+      <c r="H129" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="130" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G130" s="4">
+        <v>3</v>
+      </c>
+      <c r="H130" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="131" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G131" s="4">
+        <v>6</v>
+      </c>
+      <c r="H131" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G132" s="4">
+        <f>AVERAGE(G130:G131)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H132" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G133">
+        <f>G129/(12/G132)</f>
+        <v>225</v>
+      </c>
+      <c r="H133" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G134" s="2">
+        <v>200</v>
+      </c>
+      <c r="H134" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="135" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G135" s="3">
+        <f>1-(G133-G134)/G134</f>
+        <v>0.875</v>
+      </c>
+      <c r="H135" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="137" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G137" s="20" t="s">
+        <v>819</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B1C32F4A-26DB-4731-A542-EEE3F60BB487}"/>
     <hyperlink ref="V29" r:id="rId1" xr:uid="{E2DDDA48-5324-4A9C-AA98-A54A0D821563}"/>
+    <hyperlink ref="G137" r:id="rId2" xr:uid="{2E074923-2290-4D4E-9FFF-69ACC566C707}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147960EB-C167-4B88-B4B7-E61940B40B35}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -13058,7 +13280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C0D4FA-4A0D-4093-BFB0-AC151F092109}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -13278,7 +13500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8476683D-85C3-4E8A-9BF1-6D7047D6B4EA}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -13301,7 +13523,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C2" t="s">
         <v>425</v>
@@ -13309,91 +13531,91 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C7" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C9" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C10" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C11" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C12" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C14" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
